--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuent\OneDrive\Documents\2019\Física 2\UpdatedRepo\SunRotation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33675C3-ED8F-4C48-BE2A-CF904F66E7D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17471" windowHeight="9804" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,12 +27,12 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Velocidad</t>
   </si>
@@ -69,18 +75,48 @@
   <si>
     <t>Diciembre-2009</t>
   </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>Junio de 2015</t>
+  </si>
+  <si>
+    <t>Noviembre de 2105</t>
+  </si>
+  <si>
+    <t>Enero de 2016</t>
+  </si>
+  <si>
+    <t>junio de2016</t>
+  </si>
+  <si>
+    <t>enero de 2017</t>
+  </si>
+  <si>
+    <t>julio de 2017</t>
+  </si>
+  <si>
+    <t>enero de 2015</t>
+  </si>
+  <si>
+    <t>diciembre de 2017</t>
+  </si>
+  <si>
+    <t>abril de 2018</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,345 +125,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,326 +148,967 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21000736654279961"/>
+                  <c:y val="-0.14812299504228638"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$25:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$25:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.20630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A6-4DD2-9CC3-966B729536F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674790272"/>
+        <c:axId val="674790600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674790272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674790600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674790600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674790272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velocidad - Altura</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Velocidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43118678915135605"/>
+                  <c:y val="-0.39324438611840185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$49:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-0.1325692645787647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11189639641799043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8577304662659314E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42664100155335749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10199594656224928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11742329555710174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.67250923101842408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.52630099920186602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$49:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.20630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C02C-4708-834F-A91FEA3B248F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="640822336"/>
+        <c:axId val="640820368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="640822336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640820368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="640820368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640822336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -785,12 +1139,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-GT"/>
               <a:t>Altura vs Velocidad</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -799,6 +1153,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -833,9 +1207,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -883,28 +1254,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.672509231018424</c:v>
+                  <c:v>-0.67250923101842408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.526300999201866</c:v>
+                  <c:v>-0.52630099920186602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.132569264578765</c:v>
+                  <c:v>-0.1325692645787647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0285773046626593</c:v>
+                  <c:v>2.8577304662659314E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.101995946562249</c:v>
+                  <c:v>0.10199594656224928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11189639641799</c:v>
+                  <c:v>0.11189639641799043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.117423295557102</c:v>
+                  <c:v>0.11742329555710174</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.426641001553357</c:v>
+                  <c:v>0.42664100155335749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,13 +1287,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.1551</c:v>
+                  <c:v>0.15509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2063</c:v>
+                  <c:v>0.20630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.217</c:v>
@@ -934,15 +1305,20 @@
                   <c:v>0.1928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.211</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1795</c:v>
+                  <c:v>0.17949999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB79-4C6E-B722-580E7C7553CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1010,6 +1386,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="656091437"/>
@@ -1071,6 +1448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488618188"/>
@@ -1111,6 +1489,7 @@
       <a:pPr>
         <a:defRPr lang="es-ES"/>
       </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1121,10 +1500,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1155,12 +1534,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-GT"/>
               <a:t>Tiempo-Velocidad</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1169,12 +1548,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1201,9 +1600,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1234,10 +1630,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0855263157894737"/>
-                  <c:y val="-0.260627436421014"/>
+                  <c:x val="8.55263157894737E-2"/>
+                  <c:y val="-0.26062743642101399"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1262,6 +1659,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1346,7 +1744,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.2063</c:v>
+                  <c:v>0.20630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2107</c:v>
@@ -1355,16 +1753,16 @@
                   <c:v>0.1928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.211</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1551</c:v>
+                  <c:v>0.15509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1795</c:v>
+                  <c:v>0.17949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1731</c:v>
@@ -1373,6 +1771,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7F7-401D-A2B7-773F4CDEAFFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1440,6 +1843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="995468251"/>
@@ -1501,6 +1905,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="902317476"/>
@@ -1541,6 +1946,7 @@
       <a:pPr>
         <a:defRPr lang="es-ES"/>
       </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1631,6 +2037,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2663,8 +3149,1117 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4543424</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A709B3-E7C4-4DBA-89D0-70638358DE05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4814887</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F8D19B-5F02-4A4D-8A00-9D1D1721D4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2678,14 +4273,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3037840" y="845820"/>
-        <a:ext cx="6156325" cy="3550285"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2698,8 +4299,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2713,14 +4314,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3060700" y="914400"/>
-        <a:ext cx="5791200" cy="3420745"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2734,13 +4341,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="3">
           <cell r="C3">
             <v>0.11900213734064</v>
@@ -2778,16 +4385,16 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
-            <v>0.135619432496607</v>
+            <v>0.13561943249660699</v>
           </cell>
         </row>
         <row r="3">
@@ -2807,22 +4414,22 @@
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.0980591720139192</v>
+            <v>9.8059172013919199E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0.0980591720139192</v>
+            <v>9.8059172013919199E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.101973043130578</v>
+            <v>0.10197304313057801</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.132120570976265</v>
+            <v>0.13212057097626501</v>
           </cell>
         </row>
       </sheetData>
@@ -2832,13 +4439,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>0</v>
@@ -2856,27 +4463,27 @@
         </row>
         <row r="5">
           <cell r="C5">
-            <v>0.0163941769876146</v>
+            <v>1.6394176987614601E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.0327927622961139</v>
+            <v>3.27927622961139E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0.0317513664966292</v>
+            <v>3.1751366496629199E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.0656208553106266</v>
+            <v>6.56208553106266E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.0820592762102902</v>
+            <v>8.2059276210290202E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2886,13 +4493,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>0.445344972755157</v>
@@ -2905,22 +4512,22 @@
         </row>
         <row r="4">
           <cell r="C4">
-            <v>0.434605525607367</v>
+            <v>0.43460552560736698</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>0.411516846067488</v>
+            <v>0.41151684606748801</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.411516846067488</v>
+            <v>0.41151684606748801</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0.411516846067488</v>
+            <v>0.41151684606748801</v>
           </cell>
         </row>
       </sheetData>
@@ -2930,36 +4537,36 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
-            <v>0.0820592762102902</v>
+            <v>8.2059276210290202E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>0.0820592762102902</v>
+            <v>8.2059276210290202E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>0.105458525399317</v>
+            <v>0.10545852539931699</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>0.105458525399317</v>
+            <v>0.10545852539931699</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.105458525399317</v>
+            <v>0.10545852539931699</v>
           </cell>
         </row>
         <row r="7">
@@ -2969,7 +4576,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.105458525399317</v>
+            <v>0.10545852539931699</v>
           </cell>
         </row>
         <row r="9">
@@ -2984,13 +4591,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sample22006"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="11">
           <cell r="C11">
             <v>0.115007459240073</v>
@@ -3018,26 +4625,26 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
-            <v>-0.672509231018424</v>
+            <v>-0.67250923101842397</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-0.672509231018424</v>
+            <v>-0.67250923101842397</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>-0.672509231018424</v>
+            <v>-0.67250923101842397</v>
           </cell>
         </row>
       </sheetData>
@@ -3047,21 +4654,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
-            <v>-0.541338813846747</v>
+            <v>-0.54133881384674698</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-0.546442012150601</v>
+            <v>-0.54644201215060095</v>
           </cell>
         </row>
         <row r="4">
@@ -3327,32 +4934,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111"/>
-    <col min="4" max="4" width="13.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="82.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.140625"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3369,18 +4976,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.2063</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="B2">
-        <v>0.9823</v>
-      </c>
-      <c r="C2" s="1">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="C2">
         <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
-        <v>-0.132569264578765</v>
+        <v>-0.1325692645787647</v>
       </c>
       <c r="D2">
         <f>STDEV([1]Hoja1!$C$3:$C$8)</f>
-        <v>0.607415876245358</v>
+        <v>0.60741587624535831</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3394,15 +5001,15 @@
         <v>0.1928</v>
       </c>
       <c r="B3">
-        <v>0.9949</v>
+        <v>0.99490000000000001</v>
       </c>
       <c r="C3">
         <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
-        <v>0.11189639641799</v>
+        <v>0.11189639641799043</v>
       </c>
       <c r="D3">
         <f>STDEV([2]Hoja1!$C$2:$C$9)</f>
-        <v>0.0151124817527548</v>
+        <v>1.5112481752754786E-2</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -3416,15 +5023,15 @@
         <v>0.217</v>
       </c>
       <c r="B4">
-        <v>0.994</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C4">
         <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
-        <v>0.0285773046626593</v>
+        <v>2.8577304662659314E-2</v>
       </c>
       <c r="D4">
         <f>STDEV([3]Hoja1!$C$2:$C$9)</f>
-        <v>0.0313022279036156</v>
+        <v>3.1302227903615559E-2</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -3435,18 +5042,18 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.1795</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="B5">
         <v>0.997</v>
       </c>
       <c r="C5">
         <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
-        <v>0.426641001553357</v>
+        <v>0.42664100155335749</v>
       </c>
       <c r="D5">
         <f>STDEV([4]Hoja1!$C$2:$C$7)</f>
-        <v>0.0170254571646382</v>
+        <v>1.7025457164638217E-2</v>
       </c>
       <c r="E5">
         <v>31</v>
@@ -3460,15 +5067,15 @@
         <v>0.2107</v>
       </c>
       <c r="B6">
-        <v>0.9963</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C6">
         <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
-        <v>0.101995946562249</v>
+        <v>0.10199594656224928</v>
       </c>
       <c r="D6">
         <f>STDEV([5]Hoja1!$C$2:$C$9)</f>
-        <v>0.0129917467350146</v>
+        <v>1.2991746735014841E-2</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -3479,18 +5086,18 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="B7">
-        <v>0.9904</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="C7">
         <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
-        <v>0.117423295557102</v>
+        <v>0.11742329555710174</v>
       </c>
       <c r="D7">
         <f>STDEV([6]sample22006!$C$11:$C$14)</f>
-        <v>0.00319948057052634</v>
+        <v>3.1994805705263425E-3</v>
       </c>
       <c r="E7">
         <v>19</v>
@@ -3501,18 +5108,18 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.1551</v>
+        <v>0.15509999999999999</v>
       </c>
       <c r="B8">
-        <v>0.9964</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="C8">
         <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
-        <v>-0.672509231018424</v>
+        <v>-0.67250923101842408</v>
       </c>
       <c r="D8">
         <f>STDEV([7]Hoja1!$C$2:$C$4)</f>
-        <v>0</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="E8">
         <v>24</v>
@@ -3526,15 +5133,15 @@
         <v>0.1731</v>
       </c>
       <c r="B9">
-        <v>0.9966</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="C9">
         <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
-        <v>-0.526300999201866</v>
+        <v>-0.52630099920186602</v>
       </c>
       <c r="D9">
         <f>STDEV([8]Hoja1!$C$2:$C$4)</f>
-        <v>0.0305724237079452</v>
+        <v>3.0572423707945239E-2</v>
       </c>
       <c r="E9">
         <v>35</v>
@@ -3543,24 +5150,553 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>0.1925</v>
+      </c>
+      <c r="B10">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.18</v>
+      </c>
+      <c r="D10">
+        <v>0.04</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="B11">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="C11">
+        <v>-0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.04</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>0.2286</v>
+      </c>
+      <c r="B12">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="C12">
+        <v>-0.06</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="C13">
+        <v>-0.11</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="E13">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C15">
+        <v>-0.24</v>
+      </c>
+      <c r="D15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>0.2455</v>
+      </c>
+      <c r="B16">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.12</v>
+      </c>
+      <c r="D16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="B17">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="C17">
+        <v>-0.6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="B18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.12</v>
+      </c>
+      <c r="D18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E18">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.98229999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>0.1928</v>
+      </c>
+      <c r="D26">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>0.217</v>
+      </c>
+      <c r="D27">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.2107</v>
+      </c>
+      <c r="D29">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>0.1731</v>
+      </c>
+      <c r="D32">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>84</v>
+      </c>
+      <c r="C33">
+        <v>0.1925</v>
+      </c>
+      <c r="D33">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>90</v>
+      </c>
+      <c r="C34">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.94979999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <v>0.2286</v>
+      </c>
+      <c r="D35">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>109</v>
+      </c>
+      <c r="C38">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>115</v>
+      </c>
+      <c r="C39">
+        <v>0.2455</v>
+      </c>
+      <c r="D39">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>120</v>
+      </c>
+      <c r="C40">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>124</v>
+      </c>
+      <c r="C41">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49">
+        <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
+        <v>-0.1325692645787647</v>
+      </c>
+      <c r="D49">
+        <v>0.20630000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50">
+        <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
+        <v>0.11189639641799043</v>
+      </c>
+      <c r="D50">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51">
+        <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
+        <v>2.8577304662659314E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52">
+        <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
+        <v>0.42664100155335749</v>
+      </c>
+      <c r="D52">
+        <v>0.17949999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53">
+        <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
+        <v>0.10199594656224928</v>
+      </c>
+      <c r="D53">
+        <v>0.2107</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54">
+        <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
+        <v>0.11742329555710174</v>
+      </c>
+      <c r="D54">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55">
+        <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
+        <v>-0.67250923101842408</v>
+      </c>
+      <c r="D55">
+        <v>0.15509999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56">
+        <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
+        <v>-0.52630099920186602</v>
+      </c>
+      <c r="D56">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57">
+        <v>0.18</v>
+      </c>
+      <c r="D57">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58">
+        <v>-0.3</v>
+      </c>
+      <c r="D58">
+        <v>0.27110000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59">
+        <v>-0.06</v>
+      </c>
+      <c r="D59">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60">
+        <v>-0.11</v>
+      </c>
+      <c r="D60">
+        <v>0.24560000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61">
+        <v>0.1</v>
+      </c>
+      <c r="D61">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62">
+        <v>-0.24</v>
+      </c>
+      <c r="D62">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63">
+        <v>0.12</v>
+      </c>
+      <c r="D63">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65">
+        <v>-0.12</v>
+      </c>
+      <c r="D65">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F65">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.1111111111111"/>
+    <col min="1" max="2" width="14.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3574,34 +5710,34 @@
     <row r="2" spans="1:2">
       <c r="A2">
         <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
-        <v>-0.672509231018424</v>
+        <v>-0.67250923101842408</v>
       </c>
       <c r="B2">
-        <v>0.1551</v>
+        <v>0.15509999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
-        <v>-0.526300999201866</v>
+        <v>-0.52630099920186602</v>
       </c>
       <c r="B3">
         <v>0.1731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4">
         <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
-        <v>-0.132569264578765</v>
+        <v>-0.1325692645787647</v>
       </c>
       <c r="B4">
-        <v>0.2063</v>
+        <v>0.20630000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
-        <v>0.0285773046626593</v>
+        <v>2.8577304662659314E-2</v>
       </c>
       <c r="B5">
         <v>0.217</v>
@@ -3610,7 +5746,7 @@
     <row r="6" spans="1:2">
       <c r="A6">
         <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
-        <v>0.101995946562249</v>
+        <v>0.10199594656224928</v>
       </c>
       <c r="B6">
         <v>0.2107</v>
@@ -3619,7 +5755,7 @@
     <row r="7" spans="1:2">
       <c r="A7">
         <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
-        <v>0.11189639641799</v>
+        <v>0.11189639641799043</v>
       </c>
       <c r="B7">
         <v>0.1928</v>
@@ -3628,41 +5764,39 @@
     <row r="8" spans="1:2">
       <c r="A8">
         <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
-        <v>0.117423295557102</v>
+        <v>0.11742329555710174</v>
       </c>
       <c r="B8">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
-        <v>0.426641001553357</v>
+        <v>0.42664100155335749</v>
       </c>
       <c r="B9">
-        <v>0.1795</v>
+        <v>0.17949999999999999</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A13:B20">
     <sortCondition ref="A13"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3677,7 +5811,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2063</v>
+        <v>0.20630000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3701,7 +5835,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3709,7 +5843,7 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.1551</v>
+        <v>0.15509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3725,7 +5859,7 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.1795</v>
+        <v>0.17949999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3740,8 +5874,7 @@
   <sortState ref="A12:B19">
     <sortCondition ref="A2"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuent\OneDrive\Documents\2019\Física 2\UpdatedRepo\SunRotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33675C3-ED8F-4C48-BE2A-CF904F66E7D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511391E-01B1-4E0C-831A-37AE22C17EDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Velocidad</t>
   </si>
@@ -116,12 +116,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +161,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -196,6 +206,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velocidad - Tiempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -277,8 +312,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -667,8 +701,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Velocidad - Altura</a:t>
+              <a:t>Velocidad Angular - Distancia</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> del Ecuador</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -754,21 +793,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43118678915135605"/>
-                  <c:y val="-0.39324438611840185"/>
+                  <c:x val="-0.43396456692913388"/>
+                  <c:y val="-0.25015851717474008"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -779,10 +824,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="dk1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -904,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.2455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.21029999999999999</c:v>
@@ -1122,6 +1167,478 @@
     <c:title>
       <c:tx>
         <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velocidad Angular-Altura</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Velocidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15408486439195102"/>
+                  <c:y val="-0.28522511101528281"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$94:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$94:$D$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.20630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1217-4DD9-936A-1FACACECD60D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="745690792"/>
+        <c:axId val="745691120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="745690792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745691120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="745691120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745690792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
@@ -1500,7 +2017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2117,6 +2634,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3666,6 +4223,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4250,6 +5323,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594845</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>131857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5166845</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>73586</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41ED4A6-B954-41D2-8374-5F6F8223EEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4940,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="152" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5536,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:6">
       <c r="C49">
         <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
         <v>-0.1325692645787647</v>
@@ -5545,7 +6654,7 @@
         <v>0.20630000000000001</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:6">
       <c r="C50">
         <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
         <v>0.11189639641799043</v>
@@ -5554,7 +6663,7 @@
         <v>0.1928</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:6">
       <c r="C51">
         <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
         <v>2.8577304662659314E-2</v>
@@ -5563,7 +6672,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:6">
       <c r="C52">
         <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
         <v>0.42664100155335749</v>
@@ -5572,7 +6681,7 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:6">
       <c r="C53">
         <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
         <v>0.10199594656224928</v>
@@ -5581,7 +6690,7 @@
         <v>0.2107</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:6">
       <c r="C54">
         <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
         <v>0.11742329555710174</v>
@@ -5590,7 +6699,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:6">
       <c r="C55">
         <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
         <v>-0.67250923101842408</v>
@@ -5599,7 +6708,7 @@
         <v>0.15509999999999999</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:6">
       <c r="C56">
         <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
         <v>-0.52630099920186602</v>
@@ -5608,7 +6717,7 @@
         <v>0.1731</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="3:6">
       <c r="C57">
         <v>0.18</v>
       </c>
@@ -5616,7 +6725,7 @@
         <v>0.1925</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:6">
       <c r="C58">
         <v>-0.3</v>
       </c>
@@ -5624,7 +6733,7 @@
         <v>0.27110000000000001</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="3:6">
       <c r="C59">
         <v>-0.06</v>
       </c>
@@ -5632,7 +6741,7 @@
         <v>0.2286</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:6">
       <c r="C60">
         <v>-0.11</v>
       </c>
@@ -5640,7 +6749,7 @@
         <v>0.24560000000000001</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:6">
       <c r="C61">
         <v>0.1</v>
       </c>
@@ -5648,7 +6757,7 @@
         <v>0.20469999999999999</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="3:6">
       <c r="C62">
         <v>-0.24</v>
       </c>
@@ -5656,7 +6765,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" spans="3:6">
       <c r="C63">
         <v>0.12</v>
       </c>
@@ -5664,9 +6773,15 @@
         <v>0.2455</v>
       </c>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:6">
       <c r="C64">
         <v>-0.6</v>
+      </c>
+      <c r="D64">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="F64">
+        <v>0.27110000000000001</v>
       </c>
     </row>
     <row r="65" spans="3:6">
@@ -5678,6 +6793,296 @@
       </c>
       <c r="F65">
         <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74">
+        <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
+        <v>-0.1325692645787647</v>
+      </c>
+      <c r="D74">
+        <v>0.20630000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75">
+        <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
+        <v>0.11189639641799043</v>
+      </c>
+      <c r="D75">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76">
+        <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
+        <v>2.8577304662659314E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77">
+        <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
+        <v>0.42664100155335749</v>
+      </c>
+      <c r="D77">
+        <v>0.17949999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78">
+        <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
+        <v>0.10199594656224928</v>
+      </c>
+      <c r="D78">
+        <v>0.2107</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="C79">
+        <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
+        <v>0.11742329555710174</v>
+      </c>
+      <c r="D79">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80">
+        <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
+        <v>-0.67250923101842408</v>
+      </c>
+      <c r="D80">
+        <v>0.15509999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81">
+        <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
+        <v>-0.52630099920186602</v>
+      </c>
+      <c r="D81">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82">
+        <v>0.18</v>
+      </c>
+      <c r="D82">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83">
+        <v>-0.3</v>
+      </c>
+      <c r="D83">
+        <v>0.27110000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84">
+        <v>-0.06</v>
+      </c>
+      <c r="D84">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85">
+        <v>-0.11</v>
+      </c>
+      <c r="D85">
+        <v>0.24560000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86">
+        <v>0.1</v>
+      </c>
+      <c r="D86">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87">
+        <v>-0.24</v>
+      </c>
+      <c r="D87">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88">
+        <v>0.12</v>
+      </c>
+      <c r="D88">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89">
+        <v>-0.6</v>
+      </c>
+      <c r="D89">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90">
+        <v>-0.12</v>
+      </c>
+      <c r="D90">
+        <v>0.21029999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94">
+        <v>0.13</v>
+      </c>
+      <c r="D94">
+        <v>0.20630000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95">
+        <v>0.11</v>
+      </c>
+      <c r="D95">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96">
+        <v>0.02</v>
+      </c>
+      <c r="D96">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97">
+        <v>0.42</v>
+      </c>
+      <c r="D97">
+        <v>0.17949999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98">
+        <v>0.1019</v>
+      </c>
+      <c r="D98">
+        <v>0.2107</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99">
+        <v>0.1174</v>
+      </c>
+      <c r="D99">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="D100">
+        <v>0.15509999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D101">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102">
+        <v>0.18</v>
+      </c>
+      <c r="D102">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104">
+        <v>0.06</v>
+      </c>
+      <c r="D104">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105">
+        <v>0.11</v>
+      </c>
+      <c r="D105">
+        <v>0.24560000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106">
+        <v>0.1</v>
+      </c>
+      <c r="D106">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107">
+        <v>0.24</v>
+      </c>
+      <c r="D107">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108">
+        <v>0.12</v>
+      </c>
+      <c r="D108">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110">
+        <v>0.12</v>
+      </c>
+      <c r="D110">
+        <v>0.21029999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuent\OneDrive\Documents\2019\Física 2\UpdatedRepo\SunRotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Majo!\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511391E-01B1-4E0C-831A-37AE22C17EDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,12 +26,12 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Velocidad</t>
   </si>
@@ -111,17 +110,51 @@
   <si>
     <t>V</t>
   </si>
+  <si>
+    <t>Septiembre de 2014</t>
+  </si>
+  <si>
+    <t>Enero de 2014</t>
+  </si>
+  <si>
+    <t>Octubre de 2013</t>
+  </si>
+  <si>
+    <t>Mayo de 2013</t>
+  </si>
+  <si>
+    <t>Julio de 2012</t>
+  </si>
+  <si>
+    <t>Mayo de 2012</t>
+  </si>
+  <si>
+    <t>Agosto de 2011</t>
+  </si>
+  <si>
+    <t>Marzo de 2011</t>
+  </si>
+  <si>
+    <t>Marzo de 2010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,16 +194,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -192,7 +229,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -231,6 +268,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -271,7 +309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$24</c:f>
+              <c:f>Hoja1!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -354,7 +392,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$25:$B$41</c:f>
+              <c:f>Hoja1!$B$34:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -414,7 +452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$25:$C$41</c:f>
+              <c:f>Hoja1!$C$34:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -473,7 +511,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F9A6-4DD2-9CC3-966B729536F9}"/>
             </c:ext>
@@ -487,11 +525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="674790272"/>
-        <c:axId val="674790600"/>
+        <c:axId val="442235648"/>
+        <c:axId val="442245056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="674790272"/>
+        <c:axId val="442235648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +586,12 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674790600"/>
+        <c:crossAx val="442245056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="674790600"/>
+        <c:axId val="442245056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +648,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674790272"/>
+        <c:crossAx val="442235648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -624,14 +662,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -667,7 +705,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -711,6 +749,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -751,7 +790,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$48</c:f>
+              <c:f>Hoja1!$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -838,7 +877,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$C$49:$C$65</c:f>
+              <c:f>Hoja1!$C$58:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -898,7 +937,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$49:$D$65</c:f>
+              <c:f>Hoja1!$D$58:$D$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -957,7 +996,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C02C-4708-834F-A91FEA3B248F}"/>
             </c:ext>
@@ -971,11 +1010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="640822336"/>
-        <c:axId val="640820368"/>
+        <c:axId val="442236040"/>
+        <c:axId val="442236824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="640822336"/>
+        <c:axId val="442236040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,12 +1071,12 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640820368"/>
+        <c:crossAx val="442236824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="640820368"/>
+        <c:axId val="442236824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1133,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640822336"/>
+        <c:crossAx val="442236040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1108,14 +1147,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1151,7 +1190,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1190,6 +1229,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1230,7 +1270,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$93</c:f>
+              <c:f>Hoja1!$D$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1316,7 +1356,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$C$94:$C$110</c:f>
+              <c:f>Hoja1!$C$103:$C$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1376,7 +1416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$94:$D$110</c:f>
+              <c:f>Hoja1!$D$103:$D$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1429,7 +1469,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1217-4DD9-936A-1FACACECD60D}"/>
             </c:ext>
@@ -1443,11 +1483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="745690792"/>
-        <c:axId val="745691120"/>
+        <c:axId val="442237608"/>
+        <c:axId val="442238000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="745690792"/>
+        <c:axId val="442237608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,12 +1544,12 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745691120"/>
+        <c:crossAx val="442238000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="745691120"/>
+        <c:axId val="442238000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1606,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745690792"/>
+        <c:crossAx val="442237608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,14 +1620,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1623,7 +1663,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1662,6 +1702,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1831,7 +1872,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB79-4C6E-B722-580E7C7553CB}"/>
             </c:ext>
@@ -1845,11 +1886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488618188"/>
-        <c:axId val="656091437"/>
+        <c:axId val="442239568"/>
+        <c:axId val="442240352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488618188"/>
+        <c:axId val="442239568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,12 +1947,12 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656091437"/>
+        <c:crossAx val="442240352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656091437"/>
+        <c:axId val="442240352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +2009,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488618188"/>
+        <c:crossAx val="442239568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2018,7 +2059,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2057,6 +2098,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2288,7 +2330,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7F7-401D-A2B7-773F4CDEAFFC}"/>
             </c:ext>
@@ -2302,11 +2344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="902317476"/>
-        <c:axId val="995468251"/>
+        <c:axId val="442243880"/>
+        <c:axId val="442244664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="902317476"/>
+        <c:axId val="442243880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,12 +2405,12 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995468251"/>
+        <c:crossAx val="442244664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="995468251"/>
+        <c:axId val="442244664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2467,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902317476"/>
+        <c:crossAx val="442243880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5260,13 +5302,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4543424</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5274,7 +5316,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A709B3-E7C4-4DBA-89D0-70638358DE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65A709B3-E7C4-4DBA-89D0-70638358DE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5296,13 +5338,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4814887</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5310,7 +5352,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F8D19B-5F02-4A4D-8A00-9D1D1721D4C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0F8D19B-5F02-4A4D-8A00-9D1D1721D4C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5332,13 +5374,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>594845</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>131857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5166845</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>73586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5346,7 +5388,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41ED4A6-B954-41D2-8374-5F6F8223EEDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C41ED4A6-B954-41D2-8374-5F6F8223EEDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5387,7 +5429,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5428,7 +5470,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6048,11 +6090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="152" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6261,838 +6303,1019 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0.1925</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="B10">
-        <v>0.99390000000000001</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="C10">
-        <v>0.18</v>
+        <v>0.34860000000000002</v>
       </c>
       <c r="D10">
-        <v>0.04</v>
+        <v>2.1829999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>84</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>0.27110000000000001</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="B11">
-        <v>0.94979999999999998</v>
+        <v>0.99490000000000001</v>
       </c>
       <c r="C11">
-        <v>-0.3</v>
+        <v>-0.29207435999999998</v>
       </c>
       <c r="D11">
-        <v>0.04</v>
+        <v>0.18992832500000001</v>
       </c>
       <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>0.2286</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="B12">
-        <v>0.99550000000000005</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="C12">
-        <v>-0.06</v>
+        <v>-0.18726683</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>2.5005639999999999E-2</v>
       </c>
       <c r="E12">
-        <v>95</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>0.24560000000000001</v>
+        <v>0.1971</v>
       </c>
       <c r="B13">
-        <v>0.99780000000000002</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="C13">
-        <v>-0.11</v>
+        <v>0.41857100000000003</v>
       </c>
       <c r="D13">
-        <v>0.04</v>
+        <v>0.27387525000000001</v>
       </c>
       <c r="E13">
-        <v>97</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>0.20469999999999999</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="B14">
-        <v>0.99909999999999999</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0.224971</v>
       </c>
       <c r="D14">
-        <v>7.0000000000000001E-3</v>
+        <v>0.14259984000000001</v>
       </c>
       <c r="E14">
-        <v>102</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>0.22600000000000001</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="B15">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="C15">
-        <v>-0.24</v>
-      </c>
-      <c r="D15">
-        <v>2.5999999999999999E-2</v>
+        <v>0.996</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-0.24902302000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.0689899999999999E-2</v>
       </c>
       <c r="E15">
-        <v>109</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>0.2455</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>0.98899999999999999</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="C16">
-        <v>0.12</v>
+        <v>0.17377202999999999</v>
       </c>
       <c r="D16">
-        <v>1.7999999999999999E-2</v>
+        <v>0.14259984000000001</v>
       </c>
       <c r="E16">
-        <v>115</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>0.30120000000000002</v>
+        <v>0.2024</v>
       </c>
       <c r="B17">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="C17">
-        <v>-0.6</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-0.66122822999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.17599590000000001</v>
       </c>
       <c r="E17">
-        <v>120</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C18">
+        <v>-6.5882220000000005E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.19971486999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>0.1925</v>
+      </c>
+      <c r="B19">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>0.04</v>
+      </c>
+      <c r="E19">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="B20">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="C20">
+        <v>-0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.04</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>0.2286</v>
+      </c>
+      <c r="B21">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="C21">
+        <v>-0.06</v>
+      </c>
+      <c r="D21">
+        <v>0.01</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="C22">
+        <v>-0.11</v>
+      </c>
+      <c r="D22">
+        <v>0.04</v>
+      </c>
+      <c r="E22">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="B23">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="B24">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C24">
+        <v>-0.24</v>
+      </c>
+      <c r="D24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>0.2455</v>
+      </c>
+      <c r="B25">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.12</v>
+      </c>
+      <c r="D25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>115</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="C26">
+        <v>-0.6</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
         <v>0.21029999999999999</v>
       </c>
-      <c r="B18">
+      <c r="B27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C18">
+      <c r="C27">
         <v>-0.12</v>
       </c>
-      <c r="D18">
+      <c r="D27">
         <v>1.2E-2</v>
       </c>
-      <c r="E18">
+      <c r="E27">
         <v>124</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="1" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="D25">
-        <v>0.98229999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>0.1928</v>
-      </c>
-      <c r="D26">
-        <v>0.99490000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>0.217</v>
-      </c>
-      <c r="D27">
-        <v>0.99399999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>0.17949999999999999</v>
-      </c>
-      <c r="D28">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>0.2107</v>
-      </c>
-      <c r="D29">
-        <v>0.99629999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D30">
-        <v>0.99039999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="D31">
-        <v>0.99639999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32">
-        <v>35</v>
-      </c>
-      <c r="C32">
-        <v>0.1731</v>
-      </c>
-      <c r="D32">
-        <v>0.99660000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33">
-        <v>84</v>
-      </c>
-      <c r="C33">
-        <v>0.1925</v>
-      </c>
-      <c r="D33">
-        <v>0.99390000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>0.27110000000000001</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="D34">
-        <v>0.94979999999999998</v>
+        <v>0.98229999999999995</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.2286</v>
+        <v>0.1928</v>
       </c>
       <c r="D35">
-        <v>0.99550000000000005</v>
+        <v>0.99490000000000001</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C36">
-        <v>0.24560000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="D36">
-        <v>0.99780000000000002</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>0.20469999999999999</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="D37">
-        <v>0.99909999999999999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>0.22600000000000001</v>
+        <v>0.2107</v>
       </c>
       <c r="D38">
-        <v>0.99950000000000006</v>
+        <v>0.99629999999999996</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>0.2455</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D39">
-        <v>0.98899999999999999</v>
+        <v>0.99039999999999995</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>0.30120000000000002</v>
+        <v>0.15509999999999999</v>
       </c>
       <c r="D40">
-        <v>0.99960000000000004</v>
+        <v>0.99639999999999995</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>0.1731</v>
+      </c>
+      <c r="D41">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>0.1925</v>
+      </c>
+      <c r="D42">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.94979999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>0.2286</v>
+      </c>
+      <c r="D44">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>102</v>
+      </c>
+      <c r="C46">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>109</v>
+      </c>
+      <c r="C47">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>115</v>
+      </c>
+      <c r="C48">
+        <v>0.2455</v>
+      </c>
+      <c r="D48">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>120</v>
+      </c>
+      <c r="C49">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
         <v>124</v>
       </c>
-      <c r="C41">
+      <c r="C50">
         <v>0.21029999999999999</v>
       </c>
-      <c r="D41">
+      <c r="D50">
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="C48" t="s">
+    <row r="57" spans="2:4">
+      <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
-      <c r="C49">
+    <row r="58" spans="2:4">
+      <c r="C58">
         <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
         <v>-0.1325692645787647</v>
       </c>
-      <c r="D49">
+      <c r="D58">
         <v>0.20630000000000001</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
-      <c r="C50">
+    <row r="59" spans="2:4">
+      <c r="C59">
         <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
         <v>0.11189639641799043</v>
       </c>
-      <c r="D50">
+      <c r="D59">
         <v>0.1928</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
-      <c r="C51">
+    <row r="60" spans="2:4">
+      <c r="C60">
         <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
         <v>2.8577304662659314E-2</v>
       </c>
-      <c r="D51">
+      <c r="D60">
         <v>0.217</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
-      <c r="C52">
+    <row r="61" spans="2:4">
+      <c r="C61">
         <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
         <v>0.42664100155335749</v>
       </c>
-      <c r="D52">
+      <c r="D61">
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
-      <c r="C53">
+    <row r="62" spans="2:4">
+      <c r="C62">
         <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
         <v>0.10199594656224928</v>
       </c>
-      <c r="D53">
+      <c r="D62">
         <v>0.2107</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
-      <c r="C54">
+    <row r="63" spans="2:4">
+      <c r="C63">
         <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
         <v>0.11742329555710174</v>
       </c>
-      <c r="D54">
+      <c r="D63">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
-      <c r="C55">
+    <row r="64" spans="2:4">
+      <c r="C64">
         <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
         <v>-0.67250923101842408</v>
       </c>
-      <c r="D55">
+      <c r="D64">
         <v>0.15509999999999999</v>
       </c>
     </row>
-    <row r="56" spans="3:6">
-      <c r="C56">
+    <row r="65" spans="3:6">
+      <c r="C65">
         <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
         <v>-0.52630099920186602</v>
       </c>
-      <c r="D56">
+      <c r="D65">
         <v>0.1731</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
-      <c r="C57">
+    <row r="66" spans="3:6">
+      <c r="C66">
         <v>0.18</v>
       </c>
-      <c r="D57">
+      <c r="D66">
         <v>0.1925</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
-      <c r="C58">
+    <row r="67" spans="3:6">
+      <c r="C67">
         <v>-0.3</v>
       </c>
-      <c r="D58">
+      <c r="D67">
         <v>0.27110000000000001</v>
       </c>
     </row>
-    <row r="59" spans="3:6">
-      <c r="C59">
+    <row r="68" spans="3:6">
+      <c r="C68">
         <v>-0.06</v>
       </c>
-      <c r="D59">
+      <c r="D68">
         <v>0.2286</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
-      <c r="C60">
+    <row r="69" spans="3:6">
+      <c r="C69">
         <v>-0.11</v>
       </c>
-      <c r="D60">
+      <c r="D69">
         <v>0.24560000000000001</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
-      <c r="C61">
+    <row r="70" spans="3:6">
+      <c r="C70">
         <v>0.1</v>
       </c>
-      <c r="D61">
+      <c r="D70">
         <v>0.20469999999999999</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
-      <c r="C62">
+    <row r="71" spans="3:6">
+      <c r="C71">
         <v>-0.24</v>
       </c>
-      <c r="D62">
+      <c r="D71">
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="63" spans="3:6">
-      <c r="C63">
+    <row r="72" spans="3:6">
+      <c r="C72">
         <v>0.12</v>
       </c>
-      <c r="D63">
+      <c r="D72">
         <v>0.2455</v>
       </c>
     </row>
-    <row r="64" spans="3:6">
-      <c r="C64">
+    <row r="73" spans="3:6">
+      <c r="C73">
         <v>-0.6</v>
       </c>
-      <c r="D64">
+      <c r="D73">
         <v>0.30120000000000002</v>
       </c>
-      <c r="F64">
+      <c r="F73">
         <v>0.27110000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65">
-        <v>-0.12</v>
-      </c>
-      <c r="D65">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="F65">
-        <v>0.30120000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="74" spans="3:6">
       <c r="C74">
+        <v>-0.12</v>
+      </c>
+      <c r="D74">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F74">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83">
         <f>AVERAGE([1]Hoja1!$C$3:$C$8)</f>
         <v>-0.1325692645787647</v>
       </c>
-      <c r="D74">
+      <c r="D83">
         <v>0.20630000000000001</v>
       </c>
     </row>
-    <row r="75" spans="3:6">
-      <c r="C75">
+    <row r="84" spans="3:4">
+      <c r="C84">
         <f>AVERAGE([2]Hoja1!$C$2:$C$9)</f>
         <v>0.11189639641799043</v>
       </c>
-      <c r="D75">
+      <c r="D84">
         <v>0.1928</v>
       </c>
     </row>
-    <row r="76" spans="3:6">
-      <c r="C76">
+    <row r="85" spans="3:4">
+      <c r="C85">
         <f>AVERAGE([3]Hoja1!$C$2:$C$9)</f>
         <v>2.8577304662659314E-2</v>
       </c>
-      <c r="D76">
+      <c r="D85">
         <v>0.217</v>
       </c>
     </row>
-    <row r="77" spans="3:6">
-      <c r="C77">
+    <row r="86" spans="3:4">
+      <c r="C86">
         <f>AVERAGE([4]Hoja1!$C$2:$C$7)</f>
         <v>0.42664100155335749</v>
       </c>
-      <c r="D77">
+      <c r="D86">
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="78" spans="3:6">
-      <c r="C78">
+    <row r="87" spans="3:4">
+      <c r="C87">
         <f>AVERAGE([5]Hoja1!$C$2:$C$9)</f>
         <v>0.10199594656224928</v>
       </c>
-      <c r="D78">
+      <c r="D87">
         <v>0.2107</v>
       </c>
     </row>
-    <row r="79" spans="3:6">
-      <c r="C79">
+    <row r="88" spans="3:4">
+      <c r="C88">
         <f>AVERAGE([6]sample22006!$C$11:$C$14)</f>
         <v>0.11742329555710174</v>
       </c>
-      <c r="D79">
+      <c r="D88">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="80" spans="3:6">
-      <c r="C80">
+    <row r="89" spans="3:4">
+      <c r="C89">
         <f>AVERAGE([7]Hoja1!$C$2:$C$4)</f>
         <v>-0.67250923101842408</v>
       </c>
-      <c r="D80">
+      <c r="D89">
         <v>0.15509999999999999</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
-      <c r="C81">
+    <row r="90" spans="3:4">
+      <c r="C90">
         <f>AVERAGE([8]Hoja1!$C$2:$C$4)</f>
         <v>-0.52630099920186602</v>
       </c>
-      <c r="D81">
+      <c r="D90">
         <v>0.1731</v>
       </c>
     </row>
-    <row r="82" spans="3:4">
-      <c r="C82">
+    <row r="91" spans="3:4">
+      <c r="C91">
         <v>0.18</v>
       </c>
-      <c r="D82">
+      <c r="D91">
         <v>0.1925</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
-      <c r="C83">
+    <row r="92" spans="3:4">
+      <c r="C92">
         <v>-0.3</v>
       </c>
-      <c r="D83">
+      <c r="D92">
         <v>0.27110000000000001</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
-      <c r="C84">
+    <row r="93" spans="3:4">
+      <c r="C93">
         <v>-0.06</v>
       </c>
-      <c r="D84">
+      <c r="D93">
         <v>0.2286</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85">
-        <v>-0.11</v>
-      </c>
-      <c r="D85">
-        <v>0.24560000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86">
-        <v>0.1</v>
-      </c>
-      <c r="D86">
-        <v>0.20469999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87">
-        <v>-0.24</v>
-      </c>
-      <c r="D87">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88">
-        <v>0.12</v>
-      </c>
-      <c r="D88">
-        <v>0.2455</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89">
-        <v>-0.6</v>
-      </c>
-      <c r="D89">
-        <v>0.30120000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90">
-        <v>-0.12</v>
-      </c>
-      <c r="D90">
-        <v>0.21029999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="C94">
-        <v>0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="D94">
-        <v>0.20630000000000001</v>
+        <v>0.24560000000000001</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D95">
-        <v>0.1928</v>
+        <v>0.20469999999999999</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="D96">
-        <v>0.217</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="D97">
-        <v>0.17949999999999999</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98">
-        <v>0.1019</v>
+        <v>-0.6</v>
       </c>
       <c r="D98">
-        <v>0.2107</v>
+        <v>0.30120000000000002</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99">
-        <v>0.1174</v>
+        <v>-0.12</v>
       </c>
       <c r="D99">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100">
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="D100">
-        <v>0.15509999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101">
-        <v>0.52629999999999999</v>
-      </c>
-      <c r="D101">
-        <v>0.1731</v>
+        <v>0.21029999999999999</v>
       </c>
     </row>
     <row r="102" spans="3:4">
-      <c r="C102">
-        <v>0.18</v>
-      </c>
-      <c r="D102">
-        <v>0.1925</v>
+      <c r="C102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103">
-        <v>0.3</v>
+        <v>0.13</v>
+      </c>
+      <c r="D103">
+        <v>0.20630000000000001</v>
       </c>
     </row>
     <row r="104" spans="3:4">
       <c r="C104">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="D104">
-        <v>0.2286</v>
+        <v>0.1928</v>
       </c>
     </row>
     <row r="105" spans="3:4">
       <c r="C105">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="D105">
-        <v>0.24560000000000001</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="C106">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
       <c r="D106">
-        <v>0.20469999999999999</v>
+        <v>0.17949999999999999</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="C107">
-        <v>0.24</v>
+        <v>0.1019</v>
       </c>
       <c r="D107">
-        <v>0.22600000000000001</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="108" spans="3:4">
       <c r="C108">
-        <v>0.12</v>
+        <v>0.1174</v>
       </c>
       <c r="D108">
-        <v>0.2455</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109">
-        <v>0.6</v>
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="D109">
+        <v>0.15509999999999999</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="C110">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D110">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111">
+        <v>0.18</v>
+      </c>
+      <c r="D111">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113">
+        <v>0.06</v>
+      </c>
+      <c r="D113">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114">
+        <v>0.11</v>
+      </c>
+      <c r="D114">
+        <v>0.24560000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115">
+        <v>0.1</v>
+      </c>
+      <c r="D115">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116">
+        <v>0.24</v>
+      </c>
+      <c r="D116">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117">
         <v>0.12</v>
       </c>
-      <c r="D110">
+      <c r="D117">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119">
+        <v>0.12</v>
+      </c>
+      <c r="D119">
         <v>0.21029999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7194,7 +7417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
